--- a/ResnsCounter/resnums.xlsx
+++ b/ResnsCounter/resnums.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,20 +458,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>COD MW3 Multiplayer</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Warzone 2.0</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>COD MW2 Multiplayer</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CSGO</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>League of Legends</t>
         </is>
@@ -480,50 +475,47 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>AGRIS#9475</t>
+          <t>dzinchhhh</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>gesmen#3476</t>
+          <t>daisyvongrim</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Benijs#8121</t>
+          <t>miigoo</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>swich125#9331</t>
+          <t>baldrick1021</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -532,120 +524,81 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>𝙾𝚜𝚖𝚊𝚗𝚜#7531</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>7</v>
+          <t>goldmoneytree</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>its me Eli#8494</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
+          <t>agris1</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Ifchix#4022</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>6</v>
+          <t>ladymorgie</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>LadyMorgie#1930</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
+          <t>onlyonekenobwi</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Theeight#7284</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
+          <t>kondons</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MissGoldfish#8289</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
+          <t>gesmen</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MitraisBandīts#6877</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
+          <t>missgoldfish</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Evol#0230</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+          <t>mr.white1111</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>DAISY#5555</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>an.XIETY#3429</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>One Only#2681</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
